--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,31 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ßß</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -391,26 +417,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>123</v>
-      </c>
-      <c r="B1">
-        <v>456</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
       <c r="C1">
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>123</v>
       </c>
@@ -421,7 +450,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>123</v>
       </c>
@@ -432,7 +461,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>123</v>
       </c>
@@ -443,7 +472,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>123</v>
       </c>
@@ -454,7 +483,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>123</v>
       </c>
@@ -465,7 +494,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>123</v>
       </c>
@@ -476,7 +505,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>123</v>
       </c>
@@ -487,7 +516,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>123</v>
       </c>
@@ -498,7 +527,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>123</v>
       </c>
@@ -509,7 +538,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>123</v>
       </c>
@@ -520,7 +549,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>456</v>
       </c>
@@ -528,15 +557,18 @@
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>456</v>
       </c>
       <c r="C13">
         <v>789</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>456</v>
       </c>
@@ -544,7 +576,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>456</v>
       </c>
@@ -552,7 +584,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>456</v>
       </c>
@@ -577,6 +609,9 @@
       </c>
     </row>
     <row r="19" spans="2:3">
+      <c r="B19" s="1">
+        <v>36486</v>
+      </c>
       <c r="C19">
         <v>789</v>
       </c>
@@ -597,22 +632,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
